--- a/src/main/webapp/static/monthreports/styczeń2000.xlsx
+++ b/src/main/webapp/static/monthreports/styczeń2000.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="45">
   <si>
     <t>……………………………………………</t>
   </si>
